--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H2">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I2">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J2">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87982053014031</v>
+        <v>1.921801</v>
       </c>
       <c r="N2">
-        <v>1.87982053014031</v>
+        <v>3.843602</v>
       </c>
       <c r="O2">
-        <v>0.3139184641402641</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P2">
-        <v>0.3139184641402641</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q2">
-        <v>1.696477665351163</v>
+        <v>1.7578377431825</v>
       </c>
       <c r="R2">
-        <v>1.696477665351163</v>
+        <v>7.03135097273</v>
       </c>
       <c r="S2">
-        <v>0.1431669326938285</v>
+        <v>0.1139032533482551</v>
       </c>
       <c r="T2">
-        <v>0.1431669326938285</v>
+        <v>0.07645426389066678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H3">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I3">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J3">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140412666828495</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N3">
-        <v>0.140412666828495</v>
+        <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02344805156125716</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P3">
-        <v>0.02344805156125716</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q3">
-        <v>0.1267179230078714</v>
+        <v>0.1393241335058333</v>
       </c>
       <c r="R3">
-        <v>0.1267179230078714</v>
+        <v>0.835944801035</v>
       </c>
       <c r="S3">
-        <v>0.0106938138502486</v>
+        <v>0.009027836691860969</v>
       </c>
       <c r="T3">
-        <v>0.0106938138502486</v>
+        <v>0.009089511342021158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H4">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I4">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J4">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.983069956635791</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N4">
-        <v>0.983069956635791</v>
+        <v>1.232786</v>
       </c>
       <c r="O4">
-        <v>0.164166635049203</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P4">
-        <v>0.164166635049203</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q4">
-        <v>0.8871890684085008</v>
+        <v>0.3758692601483334</v>
       </c>
       <c r="R4">
-        <v>0.8871890684085008</v>
+        <v>2.25521556089</v>
       </c>
       <c r="S4">
-        <v>0.07487050389033477</v>
+        <v>0.02435533753359168</v>
       </c>
       <c r="T4">
-        <v>0.07487050389033477</v>
+        <v>0.02452172367605167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H5">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I5">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J5">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1836409249962</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N5">
-        <v>1.1836409249962</v>
+        <v>2.993645</v>
       </c>
       <c r="O5">
-        <v>0.1976607528808269</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P5">
-        <v>0.1976607528808269</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q5">
-        <v>1.068197926799834</v>
+        <v>0.9127448975708334</v>
       </c>
       <c r="R5">
-        <v>1.068197926799834</v>
+        <v>5.476469385425</v>
       </c>
       <c r="S5">
-        <v>0.09014596762061301</v>
+        <v>0.05914346401625995</v>
       </c>
       <c r="T5">
-        <v>0.09014596762061301</v>
+        <v>0.05954750903578861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H6">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I6">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J6">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80130046537217</v>
+        <v>1.197361</v>
       </c>
       <c r="N6">
-        <v>1.80130046537217</v>
+        <v>3.592083</v>
       </c>
       <c r="O6">
-        <v>0.3008060963684488</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P6">
-        <v>0.3008060963684488</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q6">
-        <v>1.625615828263378</v>
+        <v>1.0952051528825</v>
       </c>
       <c r="R6">
-        <v>1.625615828263378</v>
+        <v>6.571230917295</v>
       </c>
       <c r="S6">
-        <v>0.1371868528683698</v>
+        <v>0.07096640772500383</v>
       </c>
       <c r="T6">
-        <v>0.1371868528683698</v>
+        <v>0.0714512224728726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.217375830129206</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H7">
-        <v>0.217375830129206</v>
+        <v>1.829365</v>
       </c>
       <c r="I7">
-        <v>0.1098513390095775</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J7">
-        <v>0.1098513390095775</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87982053014031</v>
+        <v>1.8056465</v>
       </c>
       <c r="N7">
-        <v>1.87982053014031</v>
+        <v>3.611293</v>
       </c>
       <c r="O7">
-        <v>0.3139184641402641</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P7">
-        <v>0.3139184641402641</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q7">
-        <v>0.408627548233174</v>
+        <v>1.65159325473625</v>
       </c>
       <c r="R7">
-        <v>0.408627548233174</v>
+        <v>6.606373018945</v>
       </c>
       <c r="S7">
-        <v>0.03448436362563805</v>
+        <v>0.1070188904818398</v>
       </c>
       <c r="T7">
-        <v>0.03448436362563805</v>
+        <v>0.07183333446296411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J8">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.140412666828495</v>
+        <v>1.921801</v>
       </c>
       <c r="N8">
-        <v>0.140412666828495</v>
+        <v>3.843602</v>
       </c>
       <c r="O8">
-        <v>0.02344805156125716</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P8">
-        <v>0.02344805156125716</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q8">
-        <v>0.03052232001249973</v>
+        <v>0.4257410597323333</v>
       </c>
       <c r="R8">
-        <v>0.03052232001249973</v>
+        <v>2.554446358394</v>
       </c>
       <c r="S8">
-        <v>0.002575799861169713</v>
+        <v>0.02758689872004413</v>
       </c>
       <c r="T8">
-        <v>0.002575799861169713</v>
+        <v>0.02777536162490563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J9">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.983069956635791</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N9">
-        <v>0.983069956635791</v>
+        <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.164166635049203</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P9">
-        <v>0.164166635049203</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q9">
-        <v>0.2136956478987876</v>
+        <v>0.03374373116922223</v>
       </c>
       <c r="R9">
-        <v>0.2136956478987876</v>
+        <v>0.3036935805230001</v>
       </c>
       <c r="S9">
-        <v>0.01803392468085158</v>
+        <v>0.002186504855291581</v>
       </c>
       <c r="T9">
-        <v>0.01803392468085158</v>
+        <v>0.003302163302224125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J10">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.1836409249962</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N10">
-        <v>1.1836409249962</v>
+        <v>1.232786</v>
       </c>
       <c r="O10">
-        <v>0.1976607528808269</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P10">
-        <v>0.1976607528808269</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q10">
-        <v>0.2572949286459503</v>
+        <v>0.09103398636022224</v>
       </c>
       <c r="R10">
-        <v>0.2572949286459503</v>
+        <v>0.8193058772420001</v>
       </c>
       <c r="S10">
-        <v>0.02171329837360003</v>
+        <v>0.005898762415305284</v>
       </c>
       <c r="T10">
-        <v>0.02171329837360003</v>
+        <v>0.008908590680336026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J11">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.80130046537217</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N11">
-        <v>1.80130046537217</v>
+        <v>2.993645</v>
       </c>
       <c r="O11">
-        <v>0.3008060963684488</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P11">
-        <v>0.3008060963684488</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q11">
-        <v>0.3915591839724005</v>
+        <v>0.2210630540072223</v>
       </c>
       <c r="R11">
-        <v>0.3915591839724005</v>
+        <v>1.989567486065</v>
       </c>
       <c r="S11">
-        <v>0.03304395246831811</v>
+        <v>0.01432430333469603</v>
       </c>
       <c r="T11">
-        <v>0.03304395246831811</v>
+        <v>0.02163324206085609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5195772889052001</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.5195772889052001</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.2625694902293266</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J12">
-        <v>0.2625694902293266</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.87982053014031</v>
+        <v>1.197361</v>
       </c>
       <c r="N12">
-        <v>1.87982053014031</v>
+        <v>3.592083</v>
       </c>
       <c r="O12">
-        <v>0.3139184641402641</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P12">
-        <v>0.3139184641402641</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q12">
-        <v>0.9767120546786381</v>
+        <v>0.2652541761723333</v>
       </c>
       <c r="R12">
-        <v>0.9767120546786381</v>
+        <v>2.387287585551</v>
       </c>
       <c r="S12">
-        <v>0.08242541110288229</v>
+        <v>0.0171877715946296</v>
       </c>
       <c r="T12">
-        <v>0.08242541110288229</v>
+        <v>0.02595778759394856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5195772889052001</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.5195772889052001</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.2625694902293266</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J13">
-        <v>0.2625694902293266</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.140412666828495</v>
+        <v>1.8056465</v>
       </c>
       <c r="N13">
-        <v>0.140412666828495</v>
+        <v>3.611293</v>
       </c>
       <c r="O13">
-        <v>0.02344805156125716</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P13">
-        <v>0.02344805156125716</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q13">
-        <v>0.07295523275869854</v>
+        <v>0.4000090823201667</v>
       </c>
       <c r="R13">
-        <v>0.07295523275869854</v>
+        <v>2.400054493921</v>
       </c>
       <c r="S13">
-        <v>0.006156742945310258</v>
+        <v>0.02591953439492547</v>
       </c>
       <c r="T13">
-        <v>0.006156742945310258</v>
+        <v>0.02609660651870051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H14">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I14">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J14">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.983069956635791</v>
+        <v>1.921801</v>
       </c>
       <c r="N14">
-        <v>0.983069956635791</v>
+        <v>3.843602</v>
       </c>
       <c r="O14">
-        <v>0.164166635049203</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P14">
-        <v>0.164166635049203</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q14">
-        <v>0.5107808228729769</v>
+        <v>0.2433992996516667</v>
       </c>
       <c r="R14">
-        <v>0.5107808228729769</v>
+        <v>1.46039579791</v>
       </c>
       <c r="S14">
-        <v>0.04310514967753313</v>
+        <v>0.0157716331899999</v>
       </c>
       <c r="T14">
-        <v>0.04310514967753313</v>
+        <v>0.01587937882083581</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H15">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I15">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J15">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1836409249962</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N15">
-        <v>1.1836409249962</v>
+        <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.1976607528808269</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P15">
-        <v>0.1976607528808269</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q15">
-        <v>0.6149929428467689</v>
+        <v>0.01929153964944444</v>
       </c>
       <c r="R15">
-        <v>0.6149929428467689</v>
+        <v>0.173623856845</v>
       </c>
       <c r="S15">
-        <v>0.0518996831222636</v>
+        <v>0.001250040930507229</v>
       </c>
       <c r="T15">
-        <v>0.0518996831222636</v>
+        <v>0.001887871082018979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H16">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I16">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J16">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.80130046537217</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N16">
-        <v>1.80130046537217</v>
+        <v>1.232786</v>
       </c>
       <c r="O16">
-        <v>0.3008060963684488</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P16">
-        <v>0.3008060963684488</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q16">
-        <v>0.9359148123017473</v>
+        <v>0.05204480051444444</v>
       </c>
       <c r="R16">
-        <v>0.9359148123017473</v>
+        <v>0.46840320463</v>
       </c>
       <c r="S16">
-        <v>0.0789825033813373</v>
+        <v>0.003372365920260427</v>
       </c>
       <c r="T16">
-        <v>0.0789825033813373</v>
+        <v>0.005093106908317483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.339397203011457</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H17">
-        <v>0.339397203011457</v>
+        <v>0.379955</v>
       </c>
       <c r="I17">
-        <v>0.1715150998377012</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J17">
-        <v>0.1715150998377012</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.87982053014031</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N17">
-        <v>1.87982053014031</v>
+        <v>2.993645</v>
       </c>
       <c r="O17">
-        <v>0.3139184641402641</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P17">
-        <v>0.3139184641402641</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q17">
-        <v>0.6380058300931355</v>
+        <v>0.1263833762194444</v>
       </c>
       <c r="R17">
-        <v>0.6380058300931355</v>
+        <v>1.137450385975</v>
       </c>
       <c r="S17">
-        <v>0.05384175671791525</v>
+        <v>0.008189309722334634</v>
       </c>
       <c r="T17">
-        <v>0.05384175671791525</v>
+        <v>0.01236788382618726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.339397203011457</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H18">
-        <v>0.339397203011457</v>
+        <v>0.379955</v>
       </c>
       <c r="I18">
-        <v>0.1715150998377012</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J18">
-        <v>0.1715150998377012</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.140412666828495</v>
+        <v>1.197361</v>
       </c>
       <c r="N18">
-        <v>0.140412666828495</v>
+        <v>3.592083</v>
       </c>
       <c r="O18">
-        <v>0.02344805156125716</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P18">
-        <v>0.02344805156125716</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q18">
-        <v>0.04765566638897079</v>
+        <v>0.1516477662516666</v>
       </c>
       <c r="R18">
-        <v>0.04765566638897079</v>
+        <v>1.364829896265</v>
       </c>
       <c r="S18">
-        <v>0.004021694904528588</v>
+        <v>0.00982637561746064</v>
       </c>
       <c r="T18">
-        <v>0.004021694904528588</v>
+        <v>0.0148402583599666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.339397203011457</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H19">
-        <v>0.339397203011457</v>
+        <v>0.379955</v>
       </c>
       <c r="I19">
-        <v>0.1715150998377012</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J19">
-        <v>0.1715150998377012</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.983069956635791</v>
+        <v>1.8056465</v>
       </c>
       <c r="N19">
-        <v>0.983069956635791</v>
+        <v>3.611293</v>
       </c>
       <c r="O19">
-        <v>0.164166635049203</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P19">
-        <v>0.164166635049203</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q19">
-        <v>0.3336511936467818</v>
+        <v>0.2286881386358333</v>
       </c>
       <c r="R19">
-        <v>0.3336511936467818</v>
+        <v>1.372128831815</v>
       </c>
       <c r="S19">
-        <v>0.02815705680048352</v>
+        <v>0.01481838872433054</v>
       </c>
       <c r="T19">
-        <v>0.02815705680048352</v>
+        <v>0.01491962216172034</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H20">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I20">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J20">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1836409249962</v>
+        <v>1.921801</v>
       </c>
       <c r="N20">
-        <v>1.1836409249962</v>
+        <v>3.843602</v>
       </c>
       <c r="O20">
-        <v>0.1976607528808269</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P20">
-        <v>0.1976607528808269</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q20">
-        <v>0.401724419313604</v>
+        <v>0.3779535560663334</v>
       </c>
       <c r="R20">
-        <v>0.401724419313604</v>
+        <v>2.267721336398</v>
       </c>
       <c r="S20">
-        <v>0.03390180376435021</v>
+        <v>0.02449039441635656</v>
       </c>
       <c r="T20">
-        <v>0.03390180376435021</v>
+        <v>0.02465770321462886</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J21">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.456959</v>
+      </c>
+      <c r="O21">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P21">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q21">
+        <v>0.02995615033788889</v>
+      </c>
+      <c r="R21">
+        <v>0.269605353041</v>
+      </c>
+      <c r="S21">
+        <v>0.00194107959879021</v>
+      </c>
+      <c r="T21">
+        <v>0.002931510443394917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J22">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.232786</v>
+      </c>
+      <c r="O22">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P22">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q22">
+        <v>0.08081583413488889</v>
+      </c>
+      <c r="R22">
+        <v>0.7273425072140001</v>
+      </c>
+      <c r="S22">
+        <v>0.005236653078884951</v>
+      </c>
+      <c r="T22">
+        <v>0.007908641767578811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J23">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.993645</v>
+      </c>
+      <c r="O23">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P23">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q23">
+        <v>0.1962497284838889</v>
+      </c>
+      <c r="R23">
+        <v>1.766247556355</v>
+      </c>
+      <c r="S23">
+        <v>0.01271646523106082</v>
+      </c>
+      <c r="T23">
+        <v>0.0192050087235769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J24">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.197361</v>
+      </c>
+      <c r="N24">
+        <v>3.592083</v>
+      </c>
+      <c r="O24">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P24">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q24">
+        <v>0.2354805975463334</v>
+      </c>
+      <c r="R24">
+        <v>2.119325377917</v>
+      </c>
+      <c r="S24">
+        <v>0.01525852216164062</v>
+      </c>
+      <c r="T24">
+        <v>0.02304414362785576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J25">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.8056465</v>
+      </c>
+      <c r="N25">
+        <v>3.611293</v>
+      </c>
+      <c r="O25">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P25">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q25">
+        <v>0.3551098764511667</v>
+      </c>
+      <c r="R25">
+        <v>2.130659258707</v>
+      </c>
+      <c r="S25">
+        <v>0.0230101841769849</v>
+      </c>
+      <c r="T25">
+        <v>0.02316738075770246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.628561</v>
+      </c>
+      <c r="I26">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J26">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.921801</v>
+      </c>
+      <c r="N26">
+        <v>3.843602</v>
+      </c>
+      <c r="O26">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P26">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q26">
+        <v>1.043256719453667</v>
+      </c>
+      <c r="R26">
+        <v>6.259540316721999</v>
+      </c>
+      <c r="S26">
+        <v>0.06760028613793591</v>
+      </c>
+      <c r="T26">
+        <v>0.06806210485936277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.628561</v>
+      </c>
+      <c r="I27">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J27">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.456959</v>
+      </c>
+      <c r="O27">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P27">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q27">
+        <v>0.08268728955544444</v>
+      </c>
+      <c r="R27">
+        <v>0.744185605999</v>
+      </c>
+      <c r="S27">
+        <v>0.005357918458311597</v>
+      </c>
+      <c r="T27">
+        <v>0.008091782493200273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.628561</v>
+      </c>
+      <c r="I28">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J28">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.232786</v>
+      </c>
+      <c r="O28">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P28">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q28">
+        <v>0.2230741334384445</v>
+      </c>
+      <c r="R28">
+        <v>2.007667200946</v>
+      </c>
+      <c r="S28">
+        <v>0.0144546159820643</v>
+      </c>
+      <c r="T28">
+        <v>0.02183004639948527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="H21">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="I21">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="J21">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="N21">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="O21">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="P21">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="Q21">
-        <v>0.6113563397305504</v>
-      </c>
-      <c r="R21">
-        <v>0.6113563397305504</v>
-      </c>
-      <c r="S21">
-        <v>0.05159278765042369</v>
-      </c>
-      <c r="T21">
-        <v>0.05159278765042369</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.628561</v>
+      </c>
+      <c r="I29">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J29">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.993645</v>
+      </c>
+      <c r="O29">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P29">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q29">
+        <v>0.5417037216494445</v>
+      </c>
+      <c r="R29">
+        <v>4.875333494845</v>
+      </c>
+      <c r="S29">
+        <v>0.03510097361717839</v>
+      </c>
+      <c r="T29">
+        <v>0.053011154615308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.628561</v>
+      </c>
+      <c r="I30">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J30">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.197361</v>
+      </c>
+      <c r="N30">
+        <v>3.592083</v>
+      </c>
+      <c r="O30">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P30">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q30">
+        <v>0.6499918091736666</v>
+      </c>
+      <c r="R30">
+        <v>5.849926282563</v>
+      </c>
+      <c r="S30">
+        <v>0.04211775631837275</v>
+      </c>
+      <c r="T30">
+        <v>0.06360823254060499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.628561</v>
+      </c>
+      <c r="I31">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J31">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.8056465</v>
+      </c>
+      <c r="N31">
+        <v>3.611293</v>
+      </c>
+      <c r="O31">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P31">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q31">
+        <v>0.9802018232288333</v>
+      </c>
+      <c r="R31">
+        <v>5.881210939372999</v>
+      </c>
+      <c r="S31">
+        <v>0.06351449503042328</v>
+      </c>
+      <c r="T31">
+        <v>0.06394840122465406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3770265</v>
+      </c>
+      <c r="H32">
+        <v>0.754053</v>
+      </c>
+      <c r="I32">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J32">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.921801</v>
+      </c>
+      <c r="N32">
+        <v>3.843602</v>
+      </c>
+      <c r="O32">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P32">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q32">
+        <v>0.7245699047265</v>
+      </c>
+      <c r="R32">
+        <v>2.898279618906</v>
+      </c>
+      <c r="S32">
+        <v>0.0469502203753826</v>
+      </c>
+      <c r="T32">
+        <v>0.03151397728148782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3770265</v>
+      </c>
+      <c r="H33">
+        <v>0.754053</v>
+      </c>
+      <c r="I33">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J33">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.456959</v>
+      </c>
+      <c r="O33">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P33">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q33">
+        <v>0.0574285508045</v>
+      </c>
+      <c r="R33">
+        <v>0.344571304827</v>
+      </c>
+      <c r="S33">
+        <v>0.003721218751319632</v>
+      </c>
+      <c r="T33">
+        <v>0.003746640662735474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3770265</v>
+      </c>
+      <c r="H34">
+        <v>0.754053</v>
+      </c>
+      <c r="I34">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J34">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.232786</v>
+      </c>
+      <c r="O34">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P34">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q34">
+        <v>0.154930996943</v>
+      </c>
+      <c r="R34">
+        <v>0.9295859816579999</v>
+      </c>
+      <c r="S34">
+        <v>0.01003912031399824</v>
+      </c>
+      <c r="T34">
+        <v>0.01010770365842672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3770265</v>
+      </c>
+      <c r="H35">
+        <v>0.754053</v>
+      </c>
+      <c r="I35">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J35">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N35">
+        <v>2.993645</v>
+      </c>
+      <c r="O35">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P35">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q35">
+        <v>0.3762278321975</v>
+      </c>
+      <c r="R35">
+        <v>2.257366993185</v>
+      </c>
+      <c r="S35">
+        <v>0.02437857205743679</v>
+      </c>
+      <c r="T35">
+        <v>0.0245451169290784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3770265</v>
+      </c>
+      <c r="H36">
+        <v>0.754053</v>
+      </c>
+      <c r="I36">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J36">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.197361</v>
+      </c>
+      <c r="N36">
+        <v>3.592083</v>
+      </c>
+      <c r="O36">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P36">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q36">
+        <v>0.4514368270665</v>
+      </c>
+      <c r="R36">
+        <v>2.708620962399</v>
+      </c>
+      <c r="S36">
+        <v>0.02925191672753239</v>
+      </c>
+      <c r="T36">
+        <v>0.02945175438435577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3770265</v>
+      </c>
+      <c r="H37">
+        <v>0.754053</v>
+      </c>
+      <c r="I37">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J37">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.8056465</v>
+      </c>
+      <c r="N37">
+        <v>3.611293</v>
+      </c>
+      <c r="O37">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P37">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q37">
+        <v>0.68077658013225</v>
+      </c>
+      <c r="R37">
+        <v>2.723106320529</v>
+      </c>
+      <c r="S37">
+        <v>0.04411252834972938</v>
+      </c>
+      <c r="T37">
+        <v>0.02960925859618035</v>
       </c>
     </row>
   </sheetData>
